--- a/Hardware/Sch/料单.xlsx
+++ b/Hardware/Sch/料单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Comment</t>
   </si>
@@ -31,9 +32,6 @@
   </si>
   <si>
     <t>MAX903</t>
-  </si>
-  <si>
-    <t>OPA2350</t>
   </si>
   <si>
     <t>STM32F407ZGT6</t>
@@ -77,34 +75,92 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10uF10V钽电容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAP-3216</t>
-  </si>
-  <si>
     <t>10uH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1k电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3k电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1k电阻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD8622AR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1964ES5-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100R电阻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K电阻（1%精度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8M无源晶振</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC3225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15uH</t>
+  </si>
+  <si>
+    <t>L-7-7-3</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>150PF</t>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10nF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,20 +263,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,147 +613,268 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="5">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="5">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>20</v>
       </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>200</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>500</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>200</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5">
         <v>100</v>
       </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5">
+        <v>100</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
